--- a/stock/data/한미약품.xlsx
+++ b/stock/data/한미약품.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3371"/>
+  <dimension ref="A1:G3404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77978,10 +77978,769 @@
         <v>333000</v>
       </c>
       <c r="F3371" t="n">
-        <v>107323</v>
+        <v>107481</v>
       </c>
       <c r="G3371" t="n">
         <v>-2.631578947368421</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3372" t="n">
+        <v>334500</v>
+      </c>
+      <c r="C3372" t="n">
+        <v>334500</v>
+      </c>
+      <c r="D3372" t="n">
+        <v>327000</v>
+      </c>
+      <c r="E3372" t="n">
+        <v>328000</v>
+      </c>
+      <c r="F3372" t="n">
+        <v>35557</v>
+      </c>
+      <c r="G3372" t="n">
+        <v>-1.501501501501501</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3373" t="n">
+        <v>325500</v>
+      </c>
+      <c r="C3373" t="n">
+        <v>328000</v>
+      </c>
+      <c r="D3373" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E3373" t="n">
+        <v>320500</v>
+      </c>
+      <c r="F3373" t="n">
+        <v>57899</v>
+      </c>
+      <c r="G3373" t="n">
+        <v>-2.286585365853659</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3374" t="n">
+        <v>321500</v>
+      </c>
+      <c r="C3374" t="n">
+        <v>325000</v>
+      </c>
+      <c r="D3374" t="n">
+        <v>310500</v>
+      </c>
+      <c r="E3374" t="n">
+        <v>311000</v>
+      </c>
+      <c r="F3374" t="n">
+        <v>72358</v>
+      </c>
+      <c r="G3374" t="n">
+        <v>-2.96411856474259</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3375" t="n">
+        <v>313000</v>
+      </c>
+      <c r="C3375" t="n">
+        <v>318000</v>
+      </c>
+      <c r="D3375" t="n">
+        <v>313000</v>
+      </c>
+      <c r="E3375" t="n">
+        <v>314500</v>
+      </c>
+      <c r="F3375" t="n">
+        <v>30316</v>
+      </c>
+      <c r="G3375" t="n">
+        <v>1.12540192926045</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3376" t="n">
+        <v>310500</v>
+      </c>
+      <c r="C3376" t="n">
+        <v>317500</v>
+      </c>
+      <c r="D3376" t="n">
+        <v>310500</v>
+      </c>
+      <c r="E3376" t="n">
+        <v>314500</v>
+      </c>
+      <c r="F3376" t="n">
+        <v>25313</v>
+      </c>
+      <c r="G3376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3377" t="n">
+        <v>314500</v>
+      </c>
+      <c r="C3377" t="n">
+        <v>314500</v>
+      </c>
+      <c r="D3377" t="n">
+        <v>307000</v>
+      </c>
+      <c r="E3377" t="n">
+        <v>309000</v>
+      </c>
+      <c r="F3377" t="n">
+        <v>30434</v>
+      </c>
+      <c r="G3377" t="n">
+        <v>-1.748807631160572</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3378" t="n">
+        <v>306000</v>
+      </c>
+      <c r="C3378" t="n">
+        <v>312000</v>
+      </c>
+      <c r="D3378" t="n">
+        <v>305500</v>
+      </c>
+      <c r="E3378" t="n">
+        <v>306000</v>
+      </c>
+      <c r="F3378" t="n">
+        <v>22608</v>
+      </c>
+      <c r="G3378" t="n">
+        <v>-0.9708737864077669</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3379" t="n">
+        <v>303000</v>
+      </c>
+      <c r="C3379" t="n">
+        <v>313000</v>
+      </c>
+      <c r="D3379" t="n">
+        <v>302000</v>
+      </c>
+      <c r="E3379" t="n">
+        <v>313000</v>
+      </c>
+      <c r="F3379" t="n">
+        <v>47868</v>
+      </c>
+      <c r="G3379" t="n">
+        <v>2.287581699346405</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3380" t="n">
+        <v>312000</v>
+      </c>
+      <c r="C3380" t="n">
+        <v>318000</v>
+      </c>
+      <c r="D3380" t="n">
+        <v>306500</v>
+      </c>
+      <c r="E3380" t="n">
+        <v>316000</v>
+      </c>
+      <c r="F3380" t="n">
+        <v>30282</v>
+      </c>
+      <c r="G3380" t="n">
+        <v>0.9584664536741214</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3381" t="n">
+        <v>314500</v>
+      </c>
+      <c r="C3381" t="n">
+        <v>314500</v>
+      </c>
+      <c r="D3381" t="n">
+        <v>305500</v>
+      </c>
+      <c r="E3381" t="n">
+        <v>306000</v>
+      </c>
+      <c r="F3381" t="n">
+        <v>27999</v>
+      </c>
+      <c r="G3381" t="n">
+        <v>-3.164556962025316</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3382" t="n">
+        <v>302000</v>
+      </c>
+      <c r="C3382" t="n">
+        <v>305500</v>
+      </c>
+      <c r="D3382" t="n">
+        <v>298500</v>
+      </c>
+      <c r="E3382" t="n">
+        <v>300000</v>
+      </c>
+      <c r="F3382" t="n">
+        <v>25846</v>
+      </c>
+      <c r="G3382" t="n">
+        <v>-1.96078431372549</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3383" t="n">
+        <v>298500</v>
+      </c>
+      <c r="C3383" t="n">
+        <v>302500</v>
+      </c>
+      <c r="D3383" t="n">
+        <v>296000</v>
+      </c>
+      <c r="E3383" t="n">
+        <v>297500</v>
+      </c>
+      <c r="F3383" t="n">
+        <v>32860</v>
+      </c>
+      <c r="G3383" t="n">
+        <v>-0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3384" t="n">
+        <v>299000</v>
+      </c>
+      <c r="C3384" t="n">
+        <v>316000</v>
+      </c>
+      <c r="D3384" t="n">
+        <v>299000</v>
+      </c>
+      <c r="E3384" t="n">
+        <v>316000</v>
+      </c>
+      <c r="F3384" t="n">
+        <v>40567</v>
+      </c>
+      <c r="G3384" t="n">
+        <v>6.218487394957983</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3385" t="n">
+        <v>312000</v>
+      </c>
+      <c r="C3385" t="n">
+        <v>312000</v>
+      </c>
+      <c r="D3385" t="n">
+        <v>304500</v>
+      </c>
+      <c r="E3385" t="n">
+        <v>308500</v>
+      </c>
+      <c r="F3385" t="n">
+        <v>23500</v>
+      </c>
+      <c r="G3385" t="n">
+        <v>-2.373417721518988</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3386" t="n">
+        <v>313000</v>
+      </c>
+      <c r="C3386" t="n">
+        <v>318500</v>
+      </c>
+      <c r="D3386" t="n">
+        <v>311500</v>
+      </c>
+      <c r="E3386" t="n">
+        <v>313500</v>
+      </c>
+      <c r="F3386" t="n">
+        <v>19277</v>
+      </c>
+      <c r="G3386" t="n">
+        <v>1.620745542949757</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3387" t="n">
+        <v>314500</v>
+      </c>
+      <c r="C3387" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D3387" t="n">
+        <v>310500</v>
+      </c>
+      <c r="E3387" t="n">
+        <v>314500</v>
+      </c>
+      <c r="F3387" t="n">
+        <v>14732</v>
+      </c>
+      <c r="G3387" t="n">
+        <v>0.3189792663476874</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3388" t="n">
+        <v>316000</v>
+      </c>
+      <c r="C3388" t="n">
+        <v>316500</v>
+      </c>
+      <c r="D3388" t="n">
+        <v>312000</v>
+      </c>
+      <c r="E3388" t="n">
+        <v>315000</v>
+      </c>
+      <c r="F3388" t="n">
+        <v>15054</v>
+      </c>
+      <c r="G3388" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3389" t="n">
+        <v>314000</v>
+      </c>
+      <c r="C3389" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D3389" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E3389" t="n">
+        <v>310000</v>
+      </c>
+      <c r="F3389" t="n">
+        <v>15491</v>
+      </c>
+      <c r="G3389" t="n">
+        <v>-1.587301587301587</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3390" t="n">
+        <v>311000</v>
+      </c>
+      <c r="C3390" t="n">
+        <v>314500</v>
+      </c>
+      <c r="D3390" t="n">
+        <v>308500</v>
+      </c>
+      <c r="E3390" t="n">
+        <v>310500</v>
+      </c>
+      <c r="F3390" t="n">
+        <v>21794</v>
+      </c>
+      <c r="G3390" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3391" t="n">
+        <v>313500</v>
+      </c>
+      <c r="C3391" t="n">
+        <v>319000</v>
+      </c>
+      <c r="D3391" t="n">
+        <v>313000</v>
+      </c>
+      <c r="E3391" t="n">
+        <v>318500</v>
+      </c>
+      <c r="F3391" t="n">
+        <v>27732</v>
+      </c>
+      <c r="G3391" t="n">
+        <v>2.576489533011272</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3392" t="n">
+        <v>316500</v>
+      </c>
+      <c r="C3392" t="n">
+        <v>321500</v>
+      </c>
+      <c r="D3392" t="n">
+        <v>315500</v>
+      </c>
+      <c r="E3392" t="n">
+        <v>316500</v>
+      </c>
+      <c r="F3392" t="n">
+        <v>36262</v>
+      </c>
+      <c r="G3392" t="n">
+        <v>-0.6279434850863422</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3393" t="n">
+        <v>319000</v>
+      </c>
+      <c r="C3393" t="n">
+        <v>321500</v>
+      </c>
+      <c r="D3393" t="n">
+        <v>317000</v>
+      </c>
+      <c r="E3393" t="n">
+        <v>319500</v>
+      </c>
+      <c r="F3393" t="n">
+        <v>30894</v>
+      </c>
+      <c r="G3393" t="n">
+        <v>0.9478672985781991</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3394" t="n">
+        <v>322000</v>
+      </c>
+      <c r="C3394" t="n">
+        <v>322000</v>
+      </c>
+      <c r="D3394" t="n">
+        <v>316000</v>
+      </c>
+      <c r="E3394" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F3394" t="n">
+        <v>17868</v>
+      </c>
+      <c r="G3394" t="n">
+        <v>-0.7824726134585289</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3395" t="n">
+        <v>321000</v>
+      </c>
+      <c r="C3395" t="n">
+        <v>325000</v>
+      </c>
+      <c r="D3395" t="n">
+        <v>320500</v>
+      </c>
+      <c r="E3395" t="n">
+        <v>324000</v>
+      </c>
+      <c r="F3395" t="n">
+        <v>35926</v>
+      </c>
+      <c r="G3395" t="n">
+        <v>2.20820189274448</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3396" t="n">
+        <v>327000</v>
+      </c>
+      <c r="C3396" t="n">
+        <v>333000</v>
+      </c>
+      <c r="D3396" t="n">
+        <v>323000</v>
+      </c>
+      <c r="E3396" t="n">
+        <v>327000</v>
+      </c>
+      <c r="F3396" t="n">
+        <v>46283</v>
+      </c>
+      <c r="G3396" t="n">
+        <v>0.9259259259259258</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3397" t="n">
+        <v>327000</v>
+      </c>
+      <c r="C3397" t="n">
+        <v>327500</v>
+      </c>
+      <c r="D3397" t="n">
+        <v>318500</v>
+      </c>
+      <c r="E3397" t="n">
+        <v>319000</v>
+      </c>
+      <c r="F3397" t="n">
+        <v>28475</v>
+      </c>
+      <c r="G3397" t="n">
+        <v>-2.446483180428134</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3398" t="n">
+        <v>322500</v>
+      </c>
+      <c r="C3398" t="n">
+        <v>326000</v>
+      </c>
+      <c r="D3398" t="n">
+        <v>318500</v>
+      </c>
+      <c r="E3398" t="n">
+        <v>318500</v>
+      </c>
+      <c r="F3398" t="n">
+        <v>19543</v>
+      </c>
+      <c r="G3398" t="n">
+        <v>-0.1567398119122257</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3399" t="n">
+        <v>318500</v>
+      </c>
+      <c r="C3399" t="n">
+        <v>318500</v>
+      </c>
+      <c r="D3399" t="n">
+        <v>312500</v>
+      </c>
+      <c r="E3399" t="n">
+        <v>314000</v>
+      </c>
+      <c r="F3399" t="n">
+        <v>21340</v>
+      </c>
+      <c r="G3399" t="n">
+        <v>-1.41287284144427</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3400" t="n">
+        <v>315000</v>
+      </c>
+      <c r="C3400" t="n">
+        <v>321000</v>
+      </c>
+      <c r="D3400" t="n">
+        <v>313500</v>
+      </c>
+      <c r="E3400" t="n">
+        <v>316500</v>
+      </c>
+      <c r="F3400" t="n">
+        <v>16680</v>
+      </c>
+      <c r="G3400" t="n">
+        <v>0.7961783439490446</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3401" t="n">
+        <v>321000</v>
+      </c>
+      <c r="C3401" t="n">
+        <v>325000</v>
+      </c>
+      <c r="D3401" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E3401" t="n">
+        <v>322000</v>
+      </c>
+      <c r="F3401" t="n">
+        <v>36005</v>
+      </c>
+      <c r="G3401" t="n">
+        <v>1.737756714060032</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3402" t="n">
+        <v>319000</v>
+      </c>
+      <c r="C3402" t="n">
+        <v>328500</v>
+      </c>
+      <c r="D3402" t="n">
+        <v>317500</v>
+      </c>
+      <c r="E3402" t="n">
+        <v>324500</v>
+      </c>
+      <c r="F3402" t="n">
+        <v>28341</v>
+      </c>
+      <c r="G3402" t="n">
+        <v>0.7763975155279503</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3403" t="n">
+        <v>327500</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>327500</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>315000</v>
+      </c>
+      <c r="E3403" t="n">
+        <v>316500</v>
+      </c>
+      <c r="F3403" t="n">
+        <v>41086</v>
+      </c>
+      <c r="G3403" t="n">
+        <v>-2.465331278890601</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3404" t="n">
+        <v>314000</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>311500</v>
+      </c>
+      <c r="E3404" t="n">
+        <v>313500</v>
+      </c>
+      <c r="F3404" t="n">
+        <v>23042</v>
+      </c>
+      <c r="G3404" t="n">
+        <v>-0.9478672985781991</v>
       </c>
     </row>
   </sheetData>
